--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Tie1</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +543,10 @@
         <v>0.280285</v>
       </c>
       <c r="I2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.49161133333333</v>
+        <v>106.3675996666667</v>
       </c>
       <c r="N2">
-        <v>166.474834</v>
+        <v>319.102799</v>
       </c>
       <c r="O2">
-        <v>0.9954988457613663</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="P2">
-        <v>0.9954988457613663</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="Q2">
-        <v>5.184488760854444</v>
+        <v>9.937747557523888</v>
       </c>
       <c r="R2">
-        <v>46.66039884769</v>
+        <v>89.439728017715</v>
       </c>
       <c r="S2">
-        <v>0.004948751268418666</v>
+        <v>0.004669021034606659</v>
       </c>
       <c r="T2">
-        <v>0.004948751268418666</v>
+        <v>0.004669021034606659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.280285</v>
       </c>
       <c r="I3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +623,10 @@
         <v>0.045603</v>
       </c>
       <c r="O3">
-        <v>0.0002727002801111403</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="P3">
-        <v>0.0002727002801111403</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="Q3">
         <v>0.001420204095</v>
@@ -632,10 +635,10 @@
         <v>0.012781836855</v>
       </c>
       <c r="S3">
-        <v>1.355627746676092E-06</v>
+        <v>6.672500739837368E-07</v>
       </c>
       <c r="T3">
-        <v>1.355627746676092E-06</v>
+        <v>6.672500739837368E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>0.280285</v>
       </c>
       <c r="I4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2357046666666666</v>
+        <v>0.5886716666666666</v>
       </c>
       <c r="N4">
-        <v>0.7071139999999999</v>
+        <v>1.766015</v>
       </c>
       <c r="O4">
-        <v>0.00422845395852266</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="P4">
-        <v>0.00422845395852266</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="Q4">
-        <v>0.02202149416555555</v>
+        <v>0.05499861269722222</v>
       </c>
       <c r="R4">
-        <v>0.19819344749</v>
+        <v>0.494987514275</v>
       </c>
       <c r="S4">
-        <v>2.102018197186847E-05</v>
+        <v>2.583982719133366E-05</v>
       </c>
       <c r="T4">
-        <v>2.102018197186847E-05</v>
+        <v>2.583982719133366E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.289121</v>
+        <v>0.09342833333333334</v>
       </c>
       <c r="H5">
-        <v>42.867363</v>
+        <v>0.280285</v>
       </c>
       <c r="I5">
-        <v>0.760294375288143</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J5">
-        <v>0.760294375288143</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>55.49161133333333</v>
+        <v>0.06218866666666667</v>
       </c>
       <c r="N5">
-        <v>166.474834</v>
+        <v>0.186566</v>
       </c>
       <c r="O5">
-        <v>0.9954988457613663</v>
+        <v>0.0005810197099272038</v>
       </c>
       <c r="P5">
-        <v>0.9954988457613663</v>
+        <v>0.0005810197099272037</v>
       </c>
       <c r="Q5">
-        <v>792.9263488269713</v>
+        <v>0.005810183478888889</v>
       </c>
       <c r="R5">
-        <v>7136.337139442741</v>
+        <v>0.05229165131000001</v>
       </c>
       <c r="S5">
-        <v>0.7568721730382054</v>
+        <v>2.729780437752996E-06</v>
       </c>
       <c r="T5">
-        <v>0.7568721730382054</v>
+        <v>2.729780437752995E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>42.867363</v>
       </c>
       <c r="I6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.015201</v>
+        <v>106.3675996666667</v>
       </c>
       <c r="N6">
-        <v>0.045603</v>
+        <v>319.102799</v>
       </c>
       <c r="O6">
-        <v>0.0002727002801111403</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="P6">
-        <v>0.0002727002801111403</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="Q6">
-        <v>0.217208928321</v>
+        <v>1519.89950211656</v>
       </c>
       <c r="R6">
-        <v>1.954880354889</v>
+        <v>13679.09551904904</v>
       </c>
       <c r="S6">
-        <v>0.000207332489108001</v>
+        <v>0.7140896571172887</v>
       </c>
       <c r="T6">
-        <v>0.000207332489108001</v>
+        <v>0.7140896571172887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,45 +853,45 @@
         <v>42.867363</v>
       </c>
       <c r="I7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2357046666666666</v>
+        <v>0.015201</v>
       </c>
       <c r="N7">
-        <v>0.7071139999999999</v>
+        <v>0.045603</v>
       </c>
       <c r="O7">
-        <v>0.00422845395852266</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="P7">
-        <v>0.00422845395852266</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="Q7">
-        <v>3.368012502264666</v>
+        <v>0.217208928321</v>
       </c>
       <c r="R7">
-        <v>30.31211252038199</v>
+        <v>1.954880354889</v>
       </c>
       <c r="S7">
-        <v>0.003214869760829661</v>
+        <v>0.0001020505954055254</v>
       </c>
       <c r="T7">
-        <v>0.003214869760829661</v>
+        <v>0.0001020505954055254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.411646</v>
+        <v>14.289121</v>
       </c>
       <c r="H8">
-        <v>13.234938</v>
+        <v>42.867363</v>
       </c>
       <c r="I8">
-        <v>0.2347344976337197</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J8">
-        <v>0.2347344976337198</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>55.49161133333333</v>
+        <v>0.5886716666666666</v>
       </c>
       <c r="N8">
-        <v>166.474834</v>
+        <v>1.766015</v>
       </c>
       <c r="O8">
-        <v>0.9954988457613663</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="P8">
-        <v>0.9954988457613663</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="Q8">
-        <v>244.8093451722547</v>
+        <v>8.411600674271666</v>
       </c>
       <c r="R8">
-        <v>2203.284106550292</v>
+        <v>75.704406068445</v>
       </c>
       <c r="S8">
-        <v>0.2336779214547421</v>
+        <v>0.003951996189835954</v>
       </c>
       <c r="T8">
-        <v>0.2336779214547422</v>
+        <v>0.003951996189835954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.411646</v>
+        <v>14.289121</v>
       </c>
       <c r="H9">
-        <v>13.234938</v>
+        <v>42.867363</v>
       </c>
       <c r="I9">
-        <v>0.2347344976337197</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J9">
-        <v>0.2347344976337198</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.015201</v>
+        <v>0.06218866666666667</v>
       </c>
       <c r="N9">
-        <v>0.045603</v>
+        <v>0.186566</v>
       </c>
       <c r="O9">
-        <v>0.0002727002801111403</v>
+        <v>0.0005810197099272038</v>
       </c>
       <c r="P9">
-        <v>0.0002727002801111403</v>
+        <v>0.0005810197099272037</v>
       </c>
       <c r="Q9">
-        <v>0.067061430846</v>
+        <v>0.8886213828286667</v>
       </c>
       <c r="R9">
-        <v>0.603552877614</v>
+        <v>7.997592445458</v>
       </c>
       <c r="S9">
-        <v>6.401216325646317E-05</v>
+        <v>0.0004174982212228859</v>
       </c>
       <c r="T9">
-        <v>6.401216325646318E-05</v>
+        <v>0.0004174982212228858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1030,46 +1033,232 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H10">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I10">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J10">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>106.3675996666667</v>
+      </c>
+      <c r="N10">
+        <v>319.102799</v>
+      </c>
+      <c r="O10">
+        <v>0.9937770853850048</v>
+      </c>
+      <c r="P10">
+        <v>0.9937770853850048</v>
+      </c>
+      <c r="Q10">
+        <v>585.3611462654699</v>
+      </c>
+      <c r="R10">
+        <v>5268.25031638923</v>
+      </c>
+      <c r="S10">
+        <v>0.2750184072331096</v>
+      </c>
+      <c r="T10">
+        <v>0.2750184072331096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.503190333333333</v>
+      </c>
+      <c r="H11">
+        <v>16.509571</v>
+      </c>
+      <c r="I11">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="J11">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.015201</v>
+      </c>
+      <c r="N11">
+        <v>0.045603</v>
+      </c>
+      <c r="O11">
+        <v>0.0001420207424279358</v>
+      </c>
+      <c r="P11">
+        <v>0.0001420207424279358</v>
+      </c>
+      <c r="Q11">
+        <v>0.083653996257</v>
+      </c>
+      <c r="R11">
+        <v>0.752885966313</v>
+      </c>
+      <c r="S11">
+        <v>3.930289694842663E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.930289694842663E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.503190333333333</v>
+      </c>
+      <c r="H12">
+        <v>16.509571</v>
+      </c>
+      <c r="I12">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="J12">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M10">
-        <v>0.2357046666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.7071139999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.00422845395852266</v>
-      </c>
-      <c r="P10">
-        <v>0.00422845395852266</v>
-      </c>
-      <c r="Q10">
-        <v>1.039845549881333</v>
-      </c>
-      <c r="R10">
-        <v>9.358609948931999</v>
-      </c>
-      <c r="S10">
-        <v>0.0009925640157211302</v>
-      </c>
-      <c r="T10">
-        <v>0.0009925640157211302</v>
+      <c r="M12">
+        <v>0.5886716666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.766015</v>
+      </c>
+      <c r="O12">
+        <v>0.005499874162639981</v>
+      </c>
+      <c r="P12">
+        <v>0.005499874162639981</v>
+      </c>
+      <c r="Q12">
+        <v>3.239572225507222</v>
+      </c>
+      <c r="R12">
+        <v>29.156150029565</v>
+      </c>
+      <c r="S12">
+        <v>0.001522038145612693</v>
+      </c>
+      <c r="T12">
+        <v>0.001522038145612693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.503190333333333</v>
+      </c>
+      <c r="H13">
+        <v>16.509571</v>
+      </c>
+      <c r="I13">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="J13">
+        <v>0.2767405399839373</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06218866666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.186566</v>
+      </c>
+      <c r="O13">
+        <v>0.0005810197099272038</v>
+      </c>
+      <c r="P13">
+        <v>0.0005810197099272037</v>
+      </c>
+      <c r="Q13">
+        <v>0.3422360692428889</v>
+      </c>
+      <c r="R13">
+        <v>3.080124623186</v>
+      </c>
+      <c r="S13">
+        <v>0.000160791708266565</v>
+      </c>
+      <c r="T13">
+        <v>0.000160791708266565</v>
       </c>
     </row>
   </sheetData>
